--- a/biology/Microbiologie/Aeromonas_hydrophila/Aeromonas_hydrophila.xlsx
+++ b/biology/Microbiologie/Aeromonas_hydrophila/Aeromonas_hydrophila.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aeromonas hydrophila est une bactérie à gram négatif qui est répartie sur l'ensemble des eaux douces ou peu salines de la planète[1]. Les Aeromonas hydrophila sont plus présentes au cours des saisons chaudes mais sont capables de se multiplier dès que les températures sont supérieures à 5 °C. Elles sont pathogènes pour les anoures, les poissons, tortues, mammifères... Chez les amphibiens ces souches provoquent une flaccidité des muscles, des hémorragies, des ulcérations cutanées et parfois une septicémie foudroyante[1]
-Il existe en fait plusieurs dizaines de souches d’Aeromonas hydrophila, dont A. hydrophila subsp. hydrophila et A. hydrophila subsp. ranae sont mortelles pour les amphibiens. Plusieurs études ont montré le potentiel d'effets interactifs ou synergétiques occasionnés, entre les pesticides et l'effet de l’A.hydrophila, sur la réduction des populations[2].
-Une des souches a été repérée pour la première fois chez Rana muscosa, dans le Parc national Kings Canyon en Californie. On pense qu’elle est responsable des morts massives de Rana muscosa en 1979[3], de même que de celles du Bufo boreas (Crapaud de l'Ouest ou boréal)[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aeromonas hydrophila est une bactérie à gram négatif qui est répartie sur l'ensemble des eaux douces ou peu salines de la planète. Les Aeromonas hydrophila sont plus présentes au cours des saisons chaudes mais sont capables de se multiplier dès que les températures sont supérieures à 5 °C. Elles sont pathogènes pour les anoures, les poissons, tortues, mammifères... Chez les amphibiens ces souches provoquent une flaccidité des muscles, des hémorragies, des ulcérations cutanées et parfois une septicémie foudroyante
+Il existe en fait plusieurs dizaines de souches d’Aeromonas hydrophila, dont A. hydrophila subsp. hydrophila et A. hydrophila subsp. ranae sont mortelles pour les amphibiens. Plusieurs études ont montré le potentiel d'effets interactifs ou synergétiques occasionnés, entre les pesticides et l'effet de l’A.hydrophila, sur la réduction des populations.
+Une des souches a été repérée pour la première fois chez Rana muscosa, dans le Parc national Kings Canyon en Californie. On pense qu’elle est responsable des morts massives de Rana muscosa en 1979, de même que de celles du Bufo boreas (Crapaud de l'Ouest ou boréal).
 </t>
         </is>
       </c>
